--- a/teaching/traditional_assets/database/data/jersey/jersey_retail_special_lines.xlsx
+++ b/teaching/traditional_assets/database/data/jersey/jersey_retail_special_lines.xlsx
@@ -591,25 +591,25 @@
         </is>
       </c>
       <c r="D2">
-        <v>-0.236</v>
+        <v>-0.288</v>
       </c>
       <c r="G2">
-        <v>-0.243030303030303</v>
+        <v>-0.1466216216216216</v>
       </c>
       <c r="H2">
-        <v>-0.243030303030303</v>
+        <v>-0.1466216216216216</v>
       </c>
       <c r="I2">
-        <v>-0.2344901436868093</v>
+        <v>-0.1959459459459459</v>
       </c>
       <c r="J2">
-        <v>-0.2344901436868093</v>
+        <v>-0.1959459459459459</v>
       </c>
       <c r="K2">
-        <v>-3.03</v>
+        <v>-5.1</v>
       </c>
       <c r="L2">
-        <v>-0.1836363636363636</v>
+        <v>-0.3445945945945946</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -633,73 +633,73 @@
         <v>0</v>
       </c>
       <c r="U2">
-        <v>2.82</v>
+        <v>3.26</v>
       </c>
       <c r="V2">
-        <v>0.1276018099547511</v>
+        <v>0.1671794871794872</v>
       </c>
       <c r="W2">
-        <v>-0.2348837209302325</v>
+        <v>-0.6166868198307134</v>
       </c>
       <c r="X2">
-        <v>0.13368260788991</v>
+        <v>0.1230242329056347</v>
       </c>
       <c r="Y2">
-        <v>-0.3685663288201426</v>
+        <v>-0.7397110527363482</v>
       </c>
       <c r="Z2">
-        <v>0.5074512784191028</v>
+        <v>0.4603421461897357</v>
       </c>
       <c r="AA2">
-        <v>-0.1189923231905505</v>
+        <v>-0.09020217729393468</v>
       </c>
       <c r="AB2">
-        <v>0.07849057645204563</v>
+        <v>0.06449127636040566</v>
       </c>
       <c r="AC2">
-        <v>-0.1974828996425961</v>
+        <v>-0.1546934536543403</v>
       </c>
       <c r="AD2">
-        <v>26.7</v>
+        <v>29.5</v>
       </c>
       <c r="AE2">
-        <v>8.545436854161769</v>
+        <v>0</v>
       </c>
       <c r="AF2">
-        <v>35.24543685416177</v>
+        <v>29.5</v>
       </c>
       <c r="AG2">
-        <v>32.42543685416177</v>
+        <v>26.24</v>
       </c>
       <c r="AH2">
-        <v>0.6146162412851839</v>
+        <v>0.6020408163265306</v>
       </c>
       <c r="AI2">
-        <v>0.8099524996677343</v>
+        <v>0.9382951653944019</v>
       </c>
       <c r="AJ2">
-        <v>0.5946845862214643</v>
+        <v>0.5736773065150853</v>
       </c>
       <c r="AK2">
-        <v>0.7967831128183537</v>
+        <v>0.9311568488289567</v>
       </c>
       <c r="AL2">
-        <v>0.721</v>
+        <v>0.958</v>
       </c>
       <c r="AM2">
-        <v>0.6709999999999999</v>
+        <v>0.82</v>
       </c>
       <c r="AN2">
-        <v>-18.16326530612245</v>
+        <v>-11.75298804780877</v>
       </c>
       <c r="AO2">
-        <v>-4.618585298196949</v>
+        <v>-3.02713987473904</v>
       </c>
       <c r="AP2">
-        <v>-22.05812030895358</v>
+        <v>-10.45418326693227</v>
       </c>
       <c r="AQ2">
-        <v>-4.96274217585693</v>
+        <v>-3.536585365853659</v>
       </c>
     </row>
     <row r="3">
@@ -719,25 +719,25 @@
         </is>
       </c>
       <c r="D3">
-        <v>-0.236</v>
+        <v>-0.288</v>
       </c>
       <c r="G3">
-        <v>-0.243030303030303</v>
+        <v>-0.1466216216216216</v>
       </c>
       <c r="H3">
-        <v>-0.243030303030303</v>
+        <v>-0.1466216216216216</v>
       </c>
       <c r="I3">
-        <v>-0.2344901436868093</v>
+        <v>-0.1959459459459459</v>
       </c>
       <c r="J3">
-        <v>-0.2344901436868093</v>
+        <v>-0.1959459459459459</v>
       </c>
       <c r="K3">
-        <v>-3.03</v>
+        <v>-5.1</v>
       </c>
       <c r="L3">
-        <v>-0.1836363636363636</v>
+        <v>-0.3445945945945946</v>
       </c>
       <c r="M3">
         <v>-0</v>
@@ -761,73 +761,73 @@
         <v>0</v>
       </c>
       <c r="U3">
-        <v>2.82</v>
+        <v>3.26</v>
       </c>
       <c r="V3">
-        <v>0.1276018099547511</v>
+        <v>0.1671794871794872</v>
       </c>
       <c r="W3">
-        <v>-0.2348837209302325</v>
+        <v>-0.6166868198307134</v>
       </c>
       <c r="X3">
-        <v>0.13368260788991</v>
+        <v>0.1230242329056347</v>
       </c>
       <c r="Y3">
-        <v>-0.3685663288201426</v>
+        <v>-0.7397110527363482</v>
       </c>
       <c r="Z3">
-        <v>0.5074512784191028</v>
+        <v>0.4603421461897357</v>
       </c>
       <c r="AA3">
-        <v>-0.1189923231905505</v>
+        <v>-0.09020217729393468</v>
       </c>
       <c r="AB3">
-        <v>0.07849057645204563</v>
+        <v>0.06449127636040566</v>
       </c>
       <c r="AC3">
-        <v>-0.1974828996425961</v>
+        <v>-0.1546934536543403</v>
       </c>
       <c r="AD3">
-        <v>26.7</v>
+        <v>29.5</v>
       </c>
       <c r="AE3">
-        <v>8.545436854161769</v>
+        <v>0</v>
       </c>
       <c r="AF3">
-        <v>35.24543685416177</v>
+        <v>29.5</v>
       </c>
       <c r="AG3">
-        <v>32.42543685416177</v>
+        <v>26.24</v>
       </c>
       <c r="AH3">
-        <v>0.6146162412851839</v>
+        <v>0.6020408163265306</v>
       </c>
       <c r="AI3">
-        <v>0.8099524996677343</v>
+        <v>0.9382951653944019</v>
       </c>
       <c r="AJ3">
-        <v>0.5946845862214643</v>
+        <v>0.5736773065150853</v>
       </c>
       <c r="AK3">
-        <v>0.7967831128183537</v>
+        <v>0.9311568488289567</v>
       </c>
       <c r="AL3">
-        <v>0.721</v>
+        <v>0.958</v>
       </c>
       <c r="AM3">
-        <v>0.6709999999999999</v>
+        <v>0.82</v>
       </c>
       <c r="AN3">
-        <v>-18.16326530612245</v>
+        <v>-11.75298804780877</v>
       </c>
       <c r="AO3">
-        <v>-4.618585298196949</v>
+        <v>-3.02713987473904</v>
       </c>
       <c r="AP3">
-        <v>-22.05812030895358</v>
+        <v>-10.45418326693227</v>
       </c>
       <c r="AQ3">
-        <v>-4.96274217585693</v>
+        <v>-3.536585365853659</v>
       </c>
     </row>
   </sheetData>
